--- a/QRPH/CCG/StructureDefinition-ccg-card-library.xlsx
+++ b/QRPH/CCG/StructureDefinition-ccg-card-library.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-comment</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T16:28:52-05:00</t>
+    <t>2025-10-02T10:26:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2802,7 +2802,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>140</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>247</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>372</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>381</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>398</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
         <v>407</v>
       </c>
@@ -8168,12 +8168,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN56">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
